--- a/api/v2/app/e-lkh/modules/Lkh/Templates/document.xlsx
+++ b/api/v2/app/e-lkh/modules/Lkh/Templates/document.xlsx
@@ -209,6 +209,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -223,12 +229,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +537,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,24 +552,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -616,10 +616,10 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
@@ -630,8 +630,8 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="10"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
@@ -639,24 +639,24 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="10"/>
       <c r="F11" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -668,21 +668,26 @@
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -690,11 +695,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
